--- a/config.xlsx
+++ b/config.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/keithtan_2022_accountancy_smu_edu_sg/Documents/Desktop/smu/subject/y4s2/capstone/ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4DB114E441178AC67DF4960696DC8E693EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A389FEA6-2B3E-4324-890B-D2CF675BF388}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DB114E441178AC67DF4960696DC8E693EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{414A111B-84DE-4D1B-9641-FAB8AC7654CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="2580" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="paths" sheetId="1" r:id="rId1"/>
+    <sheet name="gto_headers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>raw_data</t>
   </si>
@@ -49,6 +50,27 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>header_row</t>
+  </si>
+  <si>
+    <t>gto</t>
+  </si>
+  <si>
+    <t>monthly_sales</t>
+  </si>
+  <si>
+    <t>monthly_rent</t>
+  </si>
+  <si>
+    <t>tenant_turnover</t>
   </si>
 </sst>
 </file>
@@ -368,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -412,4 +434,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF9E44-D244-4891-A14F-02851A432852}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/keithtan_2022_accountancy_smu_edu_sg/Documents/Desktop/smu/subject/y4s2/capstone/ETL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbogyeong/Documents/GitHub/ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DB114E441178AC67DF4960696DC8E693EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{414A111B-84DE-4D1B-9641-FAB8AC7654CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B9805-7A9B-204D-912C-31490BC44652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="2580" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paths" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,6 @@
     <t>schemas</t>
   </si>
   <si>
-    <t>C:\Users\user\OneDrive - Singapore Management University\Desktop\smu\subject\y4s2\capstone\raw data\raw data</t>
-  </si>
-  <si>
-    <t>C:\Users\user\OneDrive - Singapore Management University\Desktop\smu\subject\y4s2\capstone\cleaned data</t>
-  </si>
-  <si>
-    <t>C:\Users\user\OneDrive - Singapore Management University\Desktop\smu\subject\y4s2\capstone\schemas.xlsx</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
@@ -71,6 +62,15 @@
   </si>
   <si>
     <t>tenant_turnover</t>
+  </si>
+  <si>
+    <t>/Users/kimbogyeong/Desktop/Capstone/schemas.xlsx</t>
+  </si>
+  <si>
+    <t>/Users/kimbogyeong/Desktop/Capstone/raw data</t>
+  </si>
+  <si>
+    <t>/Users/kimbogyeong/Desktop/Capstone/cleaned data</t>
   </si>
 </sst>
 </file>
@@ -390,45 +390,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -440,56 +440,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF9E44-D244-4891-A14F-02851A432852}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4">
         <v>7</v>
